--- a/biology/Médecine/Papillome/Papillome.xlsx
+++ b/biology/Médecine/Papillome/Papillome.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le papillome est une petite tumeur bénigne constituée d'axes conjonctifs bordés par des cellules épithéliales. 
 </t>
@@ -511,10 +523,12 @@
           <t>Types</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Papillome malpighien : composé d'axes conjonctifs bordés par des cellules malpighiennes, rappelant la structure des « papilles ». Ils peuvent former un relief à la surface ou s'invaginer dans la muqueuse (papillome inversé).
-Papillome urothélial : lésion urothéliale composée d'axes conjonctifs bordés par des cellules urothéliales, rappelant la structure des "papilles". Il peut être exophytique ou inversé, dans ce dernier cas les cellules épithéliales proliférantes s'invaginent dans le stroma sous-jacent[1].</t>
+Papillome urothélial : lésion urothéliale composée d'axes conjonctifs bordés par des cellules urothéliales, rappelant la structure des "papilles". Il peut être exophytique ou inversé, dans ce dernier cas les cellules épithéliales proliférantes s'invaginent dans le stroma sous-jacent.</t>
         </is>
       </c>
     </row>
@@ -542,7 +556,9 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">De nombreux papillomes malpighiens sont associés aux papillomavirus.
 			Image histologique de papillome urothélial.
